--- a/biology/Zoologie/Dysgonia_algira/Dysgonia_algira.xlsx
+++ b/biology/Zoologie/Dysgonia_algira/Dysgonia_algira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passagère
 La Passagère (Dysgonia algira) est une espèce de lépidoptères (papillons) nocturnes de la famille des Erebidae. On la trouve en Europe - dont la France (surtout en Europe du Sud), en Afrique du Nord et au Moyen-Orient.
@@ -512,10 +524,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phalaena algira Linnaeus, 1767
-Noctua triangularis Hübner, [1803]
+Noctua triangularis Hübner, 
 Ophiusa albivitta Guenée, 1852
 Ophiusa festina Walker, 1858
 Ophiusa olympia Swinhoe, 1885
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son envergure varie de 40 à 46 mm. Le papillon vole de mai à juin suivant les endroits.
 La larve se nourrit sur Rubus (les ronces) et Salix (les saules).
